--- a/output/AdvanceCareRecords/humanname-dh-base-1.xlsx
+++ b/output/AdvanceCareRecords/humanname-dh-base-1.xlsx
@@ -175,7 +175,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -198,7 +198,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -230,7 +230,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -383,7 +383,7 @@
     <t>HumanName.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -455,67 +455,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -551,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/AdvanceCareRecords/humanname-dh-base-1.xlsx
+++ b/output/AdvanceCareRecords/humanname-dh-base-1.xlsx
@@ -175,7 +175,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -198,7 +198,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -230,7 +230,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -383,7 +383,7 @@
     <t>HumanName.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -455,67 +455,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -551,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
